--- a/Extra Work/hlr for standard user.xlsx
+++ b/Extra Work/hlr for standard user.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\Extra Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4496385C-4092-44DA-9DF7-C71822E2E44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="4" r:id="rId3"/>
+    <sheet name="Defect Report" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Defect Report'!$A$1:$M$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Scenario'!$A$1:$G$29</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="188">
   <si>
     <t>functionality id</t>
   </si>
@@ -604,12 +609,99 @@
   <si>
     <t>same as 19 test case id</t>
   </si>
+  <si>
+    <t>Test Summery</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Defect types</t>
+  </si>
+  <si>
+    <t>Teser Name</t>
+  </si>
+  <si>
+    <t>Attchment</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Functionality,Usability</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Nirav Goti</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dZoqL-u3bowtAFMZeBcGFcgOtrA7wVY2/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hn4k2hdLQ2g7DmhZPxl2HwWktv-J_eYJ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16NZa14XF5OedLdTZgcPe7HWlrysa8bhJ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pnxIZ2IdC91hBJjJfc7b2dYE5OSEbatB/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11jhmSlO-lDXP81b8x3M_ND2DyAJBVTSr/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CWBSzN15ALiuWjldiPSKDLiMc_QAoFx_/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12O60w7LEWDY572Ys13NJiScFb2RHXhD0/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1swRikMIX_vK6BgjbwFIysrZc6ic1XU48/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Utiaz9EF41_bt7dv3c3h2pbc5JjJ39Ac/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a3G3YeZES0_nfQ8Qg-NlcTmTpfAGIoCO/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o6HUj0PqQcvucgp8HQg9MVDNKty747Gh/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MtKwDvTFIwqD4Ji-exR4YfjnIyjGineg/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RTD15u0Rd7VIqK9qpaZMG-lL26p9TcCz/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IEj9YgHj6wI8zfVlfaClmnh0p5Wcui1p/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DbwL26elHVJX2a9gQjG5iZ2WETe121ON/view?usp=share_link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +762,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -703,10 +803,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,8 +908,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,23 +1005,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -952,23 +1040,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1144,11 +1215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,11 +1651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -3021,7 +3092,1529 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="28" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>16</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>19</v>
+      </c>
+      <c r="B4" s="21">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21">
+        <v>13</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>21</v>
+      </c>
+      <c r="B6" s="21">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>22</v>
+      </c>
+      <c r="B7" s="21">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>23</v>
+      </c>
+      <c r="B8" s="21">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>24</v>
+      </c>
+      <c r="B9" s="21">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>25</v>
+      </c>
+      <c r="B10" s="21">
+        <v>24</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>26</v>
+      </c>
+      <c r="B11" s="21">
+        <v>25</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>27</v>
+      </c>
+      <c r="B12" s="21">
+        <v>26</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>29</v>
+      </c>
+      <c r="B13" s="29">
+        <v>28</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>31</v>
+      </c>
+      <c r="B14" s="29">
+        <v>40</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>32</v>
+      </c>
+      <c r="B15" s="29">
+        <v>41</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>34</v>
+      </c>
+      <c r="B16" s="29">
+        <v>43</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>35</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>36</v>
+      </c>
+      <c r="B18" s="21">
+        <v>45</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>37</v>
+      </c>
+      <c r="B19" s="21">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>38</v>
+      </c>
+      <c r="B20" s="21">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>39</v>
+      </c>
+      <c r="B21" s="21">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>40</v>
+      </c>
+      <c r="B22" s="21">
+        <v>49</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>41</v>
+      </c>
+      <c r="B23" s="21">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>42</v>
+      </c>
+      <c r="B24" s="21">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>43</v>
+      </c>
+      <c r="B25" s="21">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>44</v>
+      </c>
+      <c r="B26" s="21">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>45</v>
+      </c>
+      <c r="B27" s="21">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>46</v>
+      </c>
+      <c r="B28" s="21">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>47</v>
+      </c>
+      <c r="B29" s="21">
+        <v>56</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>3</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>4</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>5</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>6</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>7</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>8</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>10</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>12</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>13</v>
+      </c>
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>14</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>15</v>
+      </c>
+      <c r="B15" s="24">
+        <v>2</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>17</v>
+      </c>
+      <c r="B16" s="24">
+        <v>4</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>18</v>
+      </c>
+      <c r="B17" s="24">
+        <v>11</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>28</v>
+      </c>
+      <c r="B18" s="24">
+        <v>27</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>30</v>
+      </c>
+      <c r="B19" s="24">
+        <v>29</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>33</v>
+      </c>
+      <c r="B20" s="24">
+        <v>42</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Extra Work/hlr for standard user.xlsx
+++ b/Extra Work/hlr for standard user.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="192">
   <si>
     <t>functionality id</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1DbwL26elHVJX2a9gQjG5iZ2WETe121ON/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pEoLGI23P4U2gYL0PslUmoLH1BAeP_Q1/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gQVo5aKPoCBtD9Uy23_07C8kcpZUu-aO/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DlNEPMKd6O0Gj453c9VQnNaehj7pHxOR/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j-VDGXnzhtUdogdJxWvctwo9wZAd0Dz8/view?usp=share_link</t>
   </si>
 </sst>
 </file>
@@ -3787,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>18</v>
       </c>
@@ -4474,9 +4486,15 @@
       <c r="E17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="I17" s="24" t="s">
         <v>114</v>
       </c>
@@ -4486,12 +4504,14 @@
       <c r="K17" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="L17" s="24"/>
+      <c r="L17" s="36" t="s">
+        <v>188</v>
+      </c>
       <c r="M17" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>28</v>
       </c>
@@ -4507,9 +4527,15 @@
       <c r="E18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="I18" s="24" t="s">
         <v>128</v>
       </c>
@@ -4519,12 +4545,14 @@
       <c r="K18" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="24"/>
+      <c r="L18" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="M18" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>30</v>
       </c>
@@ -4540,9 +4568,15 @@
       <c r="E19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>171</v>
+      </c>
       <c r="I19" s="24" t="s">
         <v>132</v>
       </c>
@@ -4552,12 +4586,14 @@
       <c r="K19" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="36" t="s">
+        <v>190</v>
+      </c>
       <c r="M19" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>33</v>
       </c>
@@ -4573,9 +4609,15 @@
       <c r="E20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="I20" s="24" t="s">
         <v>139</v>
       </c>
@@ -4585,7 +4627,9 @@
       <c r="K20" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="36" t="s">
+        <v>191</v>
+      </c>
       <c r="M20" s="21" t="s">
         <v>167</v>
       </c>
@@ -4607,9 +4651,13 @@
     <hyperlink ref="L14" r:id="rId13"/>
     <hyperlink ref="L15" r:id="rId14"/>
     <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/Extra Work/hlr for standard user.xlsx
+++ b/Extra Work/hlr for standard user.xlsx
@@ -628,9 +628,6 @@
     <t>Defect types</t>
   </si>
   <si>
-    <t>Teser Name</t>
-  </si>
-  <si>
     <t>Attchment</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1j-VDGXnzhtUdogdJxWvctwo9wZAd0Dz8/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
   </si>
 </sst>
 </file>
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,10 +3846,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>166</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>64</v>
@@ -3872,13 +3872,13 @@
         <v>75</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>76</v>
@@ -3887,13 +3887,13 @@
         <v>77</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>173</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -3913,13 +3913,13 @@
         <v>80</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H3" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>81</v>
@@ -3928,13 +3928,13 @@
         <v>89</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -3954,13 +3954,13 @@
         <v>84</v>
       </c>
       <c r="F4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H4" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>81</v>
@@ -3969,13 +3969,13 @@
         <v>89</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -3995,13 +3995,13 @@
         <v>86</v>
       </c>
       <c r="F5" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H5" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>81</v>
@@ -4010,13 +4010,13 @@
         <v>89</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -4036,13 +4036,13 @@
         <v>88</v>
       </c>
       <c r="F6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H6" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>81</v>
@@ -4051,13 +4051,13 @@
         <v>89</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4077,13 +4077,13 @@
         <v>91</v>
       </c>
       <c r="F7" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H7" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>81</v>
@@ -4092,13 +4092,13 @@
         <v>89</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4118,13 +4118,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H8" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>81</v>
@@ -4133,13 +4133,13 @@
         <v>89</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4159,13 +4159,13 @@
         <v>95</v>
       </c>
       <c r="F9" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>81</v>
@@ -4174,13 +4174,13 @@
         <v>89</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4200,13 +4200,13 @@
         <v>97</v>
       </c>
       <c r="F10" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H10" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>81</v>
@@ -4215,13 +4215,13 @@
         <v>89</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4241,13 +4241,13 @@
         <v>99</v>
       </c>
       <c r="F11" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H11" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>81</v>
@@ -4256,13 +4256,13 @@
         <v>89</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -4282,13 +4282,13 @@
         <v>103</v>
       </c>
       <c r="F12" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H12" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>81</v>
@@ -4297,13 +4297,13 @@
         <v>89</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4323,13 +4323,13 @@
         <v>102</v>
       </c>
       <c r="F13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H13" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>81</v>
@@ -4338,13 +4338,13 @@
         <v>89</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -4364,13 +4364,13 @@
         <v>105</v>
       </c>
       <c r="F14" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H14" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>81</v>
@@ -4379,13 +4379,13 @@
         <v>89</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4405,13 +4405,13 @@
         <v>106</v>
       </c>
       <c r="F15" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H15" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>81</v>
@@ -4420,13 +4420,13 @@
         <v>89</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4446,13 +4446,13 @@
         <v>70</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>112</v>
@@ -4461,13 +4461,13 @@
         <v>111</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4487,13 +4487,13 @@
         <v>70</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="H17" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>114</v>
@@ -4502,13 +4502,13 @@
         <v>111</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -4528,13 +4528,13 @@
         <v>70</v>
       </c>
       <c r="F18" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>128</v>
@@ -4543,13 +4543,13 @@
         <v>111</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -4569,13 +4569,13 @@
         <v>70</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>132</v>
@@ -4584,13 +4584,13 @@
         <v>111</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -4610,13 +4610,13 @@
         <v>70</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>139</v>
@@ -4625,13 +4625,13 @@
         <v>111</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
